--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Ceguera (UPTO).xlsx
@@ -584,7 +584,7 @@
         <v>0.1269277479404725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00483653609164335</v>
+        <v>0.0276936789487862</v>
       </c>
       <c r="F2" t="n">
         <v>0.2881720429246705</v>
@@ -599,7 +599,7 @@
         <v>1.062998348062064</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9880671232336116</v>
+        <v>0.9880671232336117</v>
       </c>
       <c r="K2" t="n">
         <v>0.345351092586092</v>
@@ -635,7 +635,7 @@
         <v>2.440061623798019</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8576316680318352</v>
+        <v>0.8576316680318351</v>
       </c>
       <c r="W2" t="n">
         <v>0.2072239002074346</v>
@@ -667,10 +667,10 @@
         <v>-0.333798480753847</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1092223870209308</v>
+        <v>-0.08636524416378788</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6722777671562927</v>
+        <v>-0.6722777671562926</v>
       </c>
       <c r="G3" t="n">
         <v>-1.047811312517022</v>
@@ -682,7 +682,7 @@
         <v>-1.829413135439604</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.236392709879964</v>
+        <v>-1.236392709879965</v>
       </c>
       <c r="K3" t="n">
         <v>-0.5335635670129431</v>
@@ -694,22 +694,22 @@
         <v>-0.8071992658853699</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4167900703131614</v>
+        <v>-0.4167900703131615</v>
       </c>
       <c r="O3" t="n">
         <v>-1.046824793102537</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2911957478195042</v>
+        <v>-0.291195747819504</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1882906815260619</v>
+        <v>-0.188290681526062</v>
       </c>
       <c r="R3" t="n">
         <v>-0.1459049452580898</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.02197647675259251</v>
+        <v>-0.02197647675259273</v>
       </c>
       <c r="T3" t="n">
         <v>-0.09504391564979592</v>
@@ -718,16 +718,16 @@
         <v>0.2754945393620671</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09386855433613339</v>
+        <v>0.09386855433613306</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0001316125872306284</v>
+        <v>-0.0001316125872305729</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4149947776623448</v>
+        <v>0.4149947776623444</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04424485540388942</v>
+        <v>0.04424485540388934</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>-0.2508767294160182</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08400058777846647</v>
+        <v>-0.06114344492132359</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5163090746562469</v>
+        <v>-0.5163090746562466</v>
       </c>
       <c r="G4" t="n">
         <v>-0.8401110845431459</v>
@@ -762,10 +762,10 @@
         <v>-0.3118101816607024</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.484264751400889</v>
+        <v>-1.48426475140089</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.9353676092341145</v>
+        <v>-0.9353676092341152</v>
       </c>
       <c r="K4" t="n">
         <v>-0.4167773244593484</v>
@@ -774,40 +774,40 @@
         <v>-1.444078397118523</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3637945927944901</v>
+        <v>-0.3637945927944906</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2310378683371622</v>
+        <v>-0.2310378683371623</v>
       </c>
       <c r="O4" t="n">
         <v>-0.3092079410564965</v>
       </c>
       <c r="P4" t="n">
-        <v>0.142255128854893</v>
+        <v>0.1422551288548932</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01340669813004336</v>
+        <v>-0.01340669813004347</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5543560941289751</v>
+        <v>0.5543560941289756</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3439250931005221</v>
+        <v>0.3439250931005218</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05739793698665502</v>
+        <v>0.05739793698665507</v>
       </c>
       <c r="U4" t="n">
         <v>0.8652617639345335</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3154627766960952</v>
+        <v>0.315462776696095</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06085059244643784</v>
+        <v>0.0608505924464379</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8015748664188949</v>
+        <v>0.8015748664188946</v>
       </c>
       <c r="Y4" t="n">
         <v>0.1005132923847704</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4098947118570798</v>
+        <v>0.4098947118570799</v>
       </c>
     </row>
     <row r="5">
@@ -833,22 +833,22 @@
         <v>-0.1687795235053905</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07138996835690936</v>
+        <v>-0.04853282549976649</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3027263829239142</v>
+        <v>-0.3027263829239141</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4901478151990413</v>
+        <v>-0.4901478151990414</v>
       </c>
       <c r="H5" t="n">
         <v>-0.198830783172972</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7678652315644636</v>
+        <v>-0.7678652315644634</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6073067269068271</v>
+        <v>-0.6073067269068275</v>
       </c>
       <c r="K5" t="n">
         <v>-0.2820212705199801</v>
@@ -857,16 +857,16 @@
         <v>-0.8393304880575434</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5620658812066894</v>
+        <v>-0.5620658812066897</v>
       </c>
       <c r="N5" t="n">
         <v>-0.3125481967836179</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6450880544675561</v>
+        <v>-0.6450880544675566</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.313971001475156</v>
+        <v>-0.3139710014751558</v>
       </c>
       <c r="Q5" t="n">
         <v>-0.2157442210044226</v>
@@ -875,7 +875,7 @@
         <v>-0.1714756690687556</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1143943302794914</v>
+        <v>-0.1143943302794916</v>
       </c>
       <c r="T5" t="n">
         <v>-0.1486248145624725</v>
@@ -884,16 +884,16 @@
         <v>0.1415878746751345</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01307761337220192</v>
+        <v>0.01307761337220148</v>
       </c>
       <c r="W5" t="n">
         <v>-0.04170059030655468</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2863896299982283</v>
+        <v>0.2863896299982276</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01958760846765203</v>
+        <v>0.01958760846765195</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04007705361793519</v>
+        <v>0.0400770536179352</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01655579449107513</v>
+        <v>0.006301348366067713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1214026821031041</v>
+        <v>0.1214026821031042</v>
       </c>
       <c r="G6" t="n">
         <v>0.1780879884298813</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04424831437611999</v>
+        <v>0.04424831437612001</v>
       </c>
       <c r="I6" t="n">
         <v>0.4263708522952356</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3348632845615979</v>
+        <v>0.3348632845615978</v>
       </c>
       <c r="K6" t="n">
         <v>0.088807777715428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7784558347928003</v>
+        <v>0.7784558347928001</v>
       </c>
       <c r="M6" t="n">
         <v>0.4520241960185645</v>
@@ -952,28 +952,28 @@
         <v>0.5472086992875682</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.129703486485811</v>
+        <v>0.1297034864858111</v>
       </c>
       <c r="R6" t="n">
         <v>1.233032359854097</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5627357295695212</v>
+        <v>0.5627357295695211</v>
       </c>
       <c r="T6" t="n">
         <v>0.1225922609873832</v>
       </c>
       <c r="U6" t="n">
-        <v>1.256288385868762</v>
+        <v>1.256288385868763</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4153947995107437</v>
+        <v>0.4153947995107435</v>
       </c>
       <c r="W6" t="n">
         <v>0.06807271731411271</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9942352538230996</v>
+        <v>0.9942352538230995</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1170472998129014</v>
@@ -999,10 +999,10 @@
         <v>-0.05125667736683746</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03783776055607974</v>
+        <v>-0.01498061769893686</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.105574012004129</v>
+        <v>-0.1055740120041289</v>
       </c>
       <c r="G7" t="n">
         <v>-0.02483332188859283</v>
@@ -1011,10 +1011,10 @@
         <v>-0.02438428338589083</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.007494434531509775</v>
+        <v>-0.007494434531509886</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3675067464905269</v>
+        <v>0.3675067464905267</v>
       </c>
       <c r="K7" t="n">
         <v>0.09763726772037487</v>
@@ -1026,7 +1026,7 @@
         <v>1.104699581164671</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3630362521925568</v>
+        <v>0.3630362521925567</v>
       </c>
       <c r="O7" t="n">
         <v>2.148018516670048</v>
@@ -1035,7 +1035,7 @@
         <v>1.450105379522777</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5288735171100885</v>
+        <v>0.5288735171100883</v>
       </c>
       <c r="R7" t="n">
         <v>2.698258223898354</v>
@@ -1050,7 +1050,7 @@
         <v>2.574674753282339</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9382640129626281</v>
+        <v>0.938264012962628</v>
       </c>
       <c r="W7" t="n">
         <v>0.2516573400644229</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07943163683056902</v>
+        <v>0.07943163683056903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005563252284515666</v>
+        <v>0.02341346808559447</v>
       </c>
       <c r="F8" t="n">
-        <v>0.115773029612077</v>
+        <v>0.1157730296120771</v>
       </c>
       <c r="G8" t="n">
         <v>0.4491466384144623</v>
@@ -1094,7 +1094,7 @@
         <v>0.155284450641944</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7618212412198775</v>
+        <v>0.761821241219877</v>
       </c>
       <c r="J8" t="n">
         <v>1.333794613657829</v>
@@ -1106,7 +1106,7 @@
         <v>2.436464895153541</v>
       </c>
       <c r="M8" t="n">
-        <v>2.769893697301313</v>
+        <v>2.769893697301312</v>
       </c>
       <c r="N8" t="n">
         <v>1.040151043385036</v>
@@ -1136,13 +1136,13 @@
         <v>1.863609008586193</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5421508082977363</v>
+        <v>0.5421508082977362</v>
       </c>
       <c r="X8" t="n">
         <v>3.501226281959001</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4769848099777761</v>
+        <v>0.4769848099777763</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>-0.06876336112399987</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04515575979048919</v>
+        <v>-0.02229861693334633</v>
       </c>
       <c r="F9" t="n">
         <v>-0.1117623514059269</v>
@@ -1180,7 +1180,7 @@
         <v>-0.1222928570792015</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03737150553513413</v>
+        <v>0.03737150553513391</v>
       </c>
       <c r="K9" t="n">
         <v>-0.02930642727656191</v>
@@ -1192,13 +1192,13 @@
         <v>0.3326001961486607</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05130449608685533</v>
+        <v>0.05130449608685528</v>
       </c>
       <c r="O9" t="n">
         <v>0.8518994157599906</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5623733756098976</v>
+        <v>0.5623733756098978</v>
       </c>
       <c r="Q9" t="n">
         <v>0.1497012631832427</v>
@@ -1207,7 +1207,7 @@
         <v>1.256998596462133</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6033018876037926</v>
+        <v>0.6033018876037924</v>
       </c>
       <c r="T9" t="n">
         <v>0.1447985902659162</v>
@@ -1216,7 +1216,7 @@
         <v>1.324654647807003</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4554730779264321</v>
+        <v>0.4554730779264319</v>
       </c>
       <c r="W9" t="n">
         <v>0.09458613044910308</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.122444711278237</v>
+        <v>0.1224447112782371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004946900609357215</v>
+        <v>0.02780404346650011</v>
       </c>
       <c r="F10" t="n">
         <v>0.2279647096390036</v>
@@ -1257,7 +1257,7 @@
         <v>0.7019819860956329</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2365586673690459</v>
+        <v>0.2365586673690458</v>
       </c>
       <c r="I10" t="n">
         <v>1.265760557002147</v>
@@ -1272,7 +1272,7 @@
         <v>3.046613095644561</v>
       </c>
       <c r="M10" t="n">
-        <v>2.897174428344808</v>
+        <v>2.897174428344807</v>
       </c>
       <c r="N10" t="n">
         <v>1.087680953500893</v>
@@ -1290,25 +1290,25 @@
         <v>5.566387629662835</v>
       </c>
       <c r="S10" t="n">
-        <v>2.796956699287915</v>
+        <v>2.796956699287916</v>
       </c>
       <c r="T10" t="n">
         <v>1.047275134029615</v>
       </c>
       <c r="U10" t="n">
-        <v>4.942221229140851</v>
+        <v>4.94222122914085</v>
       </c>
       <c r="V10" t="n">
         <v>1.822737750004811</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5299597058510668</v>
+        <v>0.5299597058510667</v>
       </c>
       <c r="X10" t="n">
-        <v>3.435911728270772</v>
+        <v>3.435911728270773</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4619076273612636</v>
+        <v>0.4619076273612637</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0.1308566909251808</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001007067431897544</v>
+        <v>0.0238642102890404</v>
       </c>
       <c r="F11" t="n">
         <v>0.2989727112461908</v>
@@ -1343,7 +1343,7 @@
         <v>0.2242888247200616</v>
       </c>
       <c r="I11" t="n">
-        <v>1.354477459790178</v>
+        <v>1.354477459790179</v>
       </c>
       <c r="J11" t="n">
         <v>1.340245861259776</v>
@@ -1373,13 +1373,13 @@
         <v>3.400900726231511</v>
       </c>
       <c r="S11" t="n">
-        <v>1.626583826753796</v>
+        <v>1.626583826753797</v>
       </c>
       <c r="T11" t="n">
         <v>0.5524130978299043</v>
       </c>
       <c r="U11" t="n">
-        <v>3.034067637154809</v>
+        <v>3.034067637154808</v>
       </c>
       <c r="V11" t="n">
         <v>1.078274314192965</v>
@@ -1414,7 +1414,7 @@
         <v>0.2221904219099535</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02228903349690215</v>
+        <v>0.04514617635404496</v>
       </c>
       <c r="F12" t="n">
         <v>0.5259494053534239</v>
@@ -1447,7 +1447,7 @@
         <v>2.205173635439781</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9673269460425727</v>
+        <v>0.9673269460425729</v>
       </c>
       <c r="Q12" t="n">
         <v>0.2928114477990972</v>
@@ -1465,7 +1465,7 @@
         <v>1.715681269741232</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5554051007410805</v>
+        <v>0.5554051007410804</v>
       </c>
       <c r="W12" t="n">
         <v>0.1018082553167779</v>
@@ -1474,7 +1474,7 @@
         <v>1.250523561821916</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1440775579435553</v>
+        <v>0.1440775579435552</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0.3133823319307998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0461574853303284</v>
+        <v>0.06901462818747126</v>
       </c>
       <c r="F13" t="n">
         <v>0.6747124348803673</v>
@@ -1509,10 +1509,10 @@
         <v>0.4569234537876463</v>
       </c>
       <c r="I13" t="n">
-        <v>2.53082378621301</v>
+        <v>2.530823786213011</v>
       </c>
       <c r="J13" t="n">
-        <v>2.299467085188305</v>
+        <v>2.299467085188306</v>
       </c>
       <c r="K13" t="n">
         <v>0.8635941563930611</v>
@@ -1580,7 +1580,7 @@
         <v>0.2006129742041563</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02138698869066015</v>
+        <v>0.044244131547803</v>
       </c>
       <c r="F14" t="n">
         <v>0.4307467330498158</v>
@@ -1607,7 +1607,7 @@
         <v>2.246070389433419</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8296004763762683</v>
+        <v>0.8296004763762684</v>
       </c>
       <c r="O14" t="n">
         <v>4.051093478759668</v>
@@ -1660,52 +1660,52 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003760566256934036</v>
+        <v>-0.003760566256934023</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03355754969288795</v>
+        <v>-0.01070040683574514</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06682500130846436</v>
+        <v>0.06682500130846439</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06751568211893916</v>
+        <v>0.0675156821189391</v>
       </c>
       <c r="H15" t="n">
         <v>-0.004948944274246442</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2936826723106769</v>
+        <v>0.2936826723106771</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02177925606630993</v>
+        <v>0.0217792560663097</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.03047897402701716</v>
+        <v>-0.03047897402701721</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2692364821830979</v>
+        <v>0.2692364821830977</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.3169324965280094</v>
+        <v>-0.3169324965280091</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.2083063232540744</v>
+        <v>-0.2083063232540743</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.2433513158325762</v>
+        <v>-0.2433513158325766</v>
       </c>
       <c r="P15" t="n">
         <v>-0.3367462551308076</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.2431977604827832</v>
+        <v>-0.2431977604827833</v>
       </c>
       <c r="R15" t="n">
         <v>-0.1970463928794208</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.2068121838063901</v>
+        <v>-0.2068121838063903</v>
       </c>
       <c r="T15" t="n">
         <v>-0.2022057134751491</v>
@@ -1714,16 +1714,16 @@
         <v>0.007681209988201765</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.06771332759172966</v>
+        <v>-0.06771332759172999</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.08326956802587879</v>
+        <v>-0.08326956802587873</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1577844823341115</v>
+        <v>0.1577844823341108</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.00506963846858538</v>
+        <v>-0.005069638468585463</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1746,22 +1746,22 @@
         <v>0.01374611750022837</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02623955045847849</v>
+        <v>-0.003382407601335652</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0730133407102623</v>
+        <v>0.07301334071026233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607570544446682</v>
+        <v>0.1607570544446683</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03380384589461274</v>
+        <v>0.03380384589461276</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4084810948583688</v>
+        <v>0.4084810948583689</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3519144970217026</v>
+        <v>0.3519144970217025</v>
       </c>
       <c r="K16" t="n">
         <v>0.09646472096991954</v>
@@ -1770,7 +1770,7 @@
         <v>0.8156989783732669</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4551668884880008</v>
+        <v>0.4551668884880009</v>
       </c>
       <c r="N16" t="n">
         <v>0.1034254328516271</v>
@@ -1779,7 +1779,7 @@
         <v>1.052767785077481</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5509857487820718</v>
+        <v>0.550985748782072</v>
       </c>
       <c r="Q16" t="n">
         <v>0.1359744934440624</v>
@@ -1797,13 +1797,13 @@
         <v>1.257701315463537</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4150776074444663</v>
+        <v>0.4150776074444661</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07380164158944102</v>
+        <v>0.07380164158944105</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9935606005856528</v>
+        <v>0.9935606005856525</v>
       </c>
       <c r="Y16" t="n">
         <v>0.1152149270473055</v>
@@ -1829,10 +1829,10 @@
         <v>0.2748522941453672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04165654543170889</v>
+        <v>0.06451368828885169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6227280881391076</v>
+        <v>0.6227280881391075</v>
       </c>
       <c r="G17" t="n">
         <v>0.9347862467291312</v>
@@ -1856,13 +1856,13 @@
         <v>1.142133600022843</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3949498505734748</v>
+        <v>0.3949498505734749</v>
       </c>
       <c r="O17" t="n">
         <v>2.187770622531407</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9597728470535655</v>
+        <v>0.9597728470535654</v>
       </c>
       <c r="Q17" t="n">
         <v>0.2802694338825946</v>
@@ -1871,7 +1871,7 @@
         <v>1.913313112781849</v>
       </c>
       <c r="S17" t="n">
-        <v>0.833398061531148</v>
+        <v>0.8333980615311478</v>
       </c>
       <c r="T17" t="n">
         <v>0.2191611546222549</v>
@@ -1912,37 +1912,37 @@
         <v>-0.2245457932983114</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.07431683181106311</v>
+        <v>-0.05145968895392022</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.467919733263405</v>
+        <v>-0.4679197332634049</v>
       </c>
       <c r="G18" t="n">
         <v>-0.8227801505579329</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3013657131791951</v>
+        <v>-0.3013657131791952</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.466374993964022</v>
+        <v>-1.466374993964023</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.9524188216942191</v>
+        <v>-0.95241882169422</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.4244342677138399</v>
+        <v>-0.42443426771384</v>
       </c>
       <c r="L18" t="n">
         <v>-1.48132154069899</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3669372852639265</v>
+        <v>-0.366937285263927</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2279771839045521</v>
+        <v>-0.2279771839045522</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3179094475106838</v>
+        <v>-0.3179094475106834</v>
       </c>
       <c r="P18" t="n">
         <v>0.1384780793603895</v>
@@ -1954,31 +1954,31 @@
         <v>0.5431752194262724</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3495678618297002</v>
+        <v>0.3495678618296999</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06198205716446031</v>
+        <v>0.06198205716446037</v>
       </c>
       <c r="U18" t="n">
         <v>0.863848834339759</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3157799687623726</v>
+        <v>0.3157799687623724</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05512166817110953</v>
+        <v>0.05512166817110958</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8022495196563417</v>
+        <v>0.8022495196563415</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1023456651503663</v>
+        <v>0.1023456651503662</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.4176226854258046</v>
+        <v>0.4176226854258047</v>
       </c>
     </row>
     <row r="19">
@@ -1995,7 +1995,7 @@
         <v>0.3090411162324908</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04368136407962063</v>
+        <v>0.06653850693676344</v>
       </c>
       <c r="F19" t="n">
         <v>0.6927187661749903</v>
@@ -2010,7 +2010,7 @@
         <v>2.424970242383752</v>
       </c>
       <c r="J19" t="n">
-        <v>1.96080623800286</v>
+        <v>1.960806238002861</v>
       </c>
       <c r="K19" t="n">
         <v>0.7328219897688786</v>
@@ -2022,10 +2022,10 @@
         <v>2.044656408551784</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7511508323624227</v>
+        <v>0.751150832362423</v>
       </c>
       <c r="O19" t="n">
-        <v>3.706511858894422</v>
+        <v>3.706511858894421</v>
       </c>
       <c r="P19" t="n">
         <v>1.845559847874878</v>
@@ -2040,16 +2040,16 @@
         <v>1.536987357591487</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5011242590061304</v>
+        <v>0.5011242590061303</v>
       </c>
       <c r="U19" t="n">
         <v>2.899454507670489</v>
       </c>
       <c r="V19" t="n">
-        <v>0.997641969262172</v>
+        <v>0.9976419692621721</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2409594382100999</v>
+        <v>0.2409594382100998</v>
       </c>
       <c r="X19" t="n">
         <v>2.021659779622676</v>
@@ -2078,13 +2078,13 @@
         <v>0.2050960108663917</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02127662417294628</v>
+        <v>0.04413376703008908</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4909540663354827</v>
+        <v>0.4909540663354826</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7357514857478618</v>
+        <v>0.7357514857478619</v>
       </c>
       <c r="H20" t="n">
         <v>0.2381301532748455</v>
@@ -2093,7 +2093,7 @@
         <v>1.487918756170376</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9639492675347349</v>
+        <v>0.9639492675347351</v>
       </c>
       <c r="K20" t="n">
         <v>0.3403500742083909</v>
@@ -2102,10 +2102,10 @@
         <v>1.887022805033442</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6971575806972448</v>
+        <v>0.6971575806972449</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2107279908137806</v>
+        <v>0.2107279908137807</v>
       </c>
       <c r="O20" t="n">
         <v>1.445803017258274</v>
@@ -2120,7 +2120,7 @@
         <v>1.207461636043432</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4703178760426224</v>
+        <v>0.4703178760426223</v>
       </c>
       <c r="T20" t="n">
         <v>0.06901136207470659</v>
@@ -2129,16 +2129,16 @@
         <v>1.12238172118183</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3346038585468122</v>
+        <v>0.334603858546812</v>
       </c>
       <c r="W20" t="n">
         <v>0.02650373959478863</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8656301061589829</v>
+        <v>0.8656301061589828</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09239005287666402</v>
+        <v>0.09239005287666396</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2158,40 +2158,40 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.052830248963188</v>
+        <v>0.05283024896318801</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01801950641782703</v>
+        <v>0.004837636439315791</v>
       </c>
       <c r="F21" t="n">
         <v>0.1744043524156684</v>
       </c>
       <c r="G21" t="n">
-        <v>0.257884976107602</v>
+        <v>0.2578849761076021</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06550902765524136</v>
+        <v>0.06550902765524134</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6209412989125246</v>
+        <v>0.6209412989125249</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3398555691722643</v>
+        <v>0.3398555691722642</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09396421178106903</v>
+        <v>0.09396421178106901</v>
       </c>
       <c r="L21" t="n">
         <v>0.810298686943226</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1296148690323067</v>
+        <v>0.1296148690323069</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.02561480571068531</v>
+        <v>-0.0256148057106852</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5029670426676507</v>
+        <v>0.5029670426676502</v>
       </c>
       <c r="P21" t="n">
         <v>0.1004816710380934</v>
@@ -2203,31 +2203,31 @@
         <v>0.5143955212103473</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1534466173175464</v>
+        <v>0.1534466173175462</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.05434798101650345</v>
+        <v>-0.0543479810165034</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5988613641554428</v>
+        <v>0.5988613641554426</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1535637027019549</v>
+        <v>0.1535637027019545</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.01655843871688198</v>
+        <v>-0.01655843871688195</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5436899178532146</v>
+        <v>0.5436899178532142</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04936642574669969</v>
+        <v>0.04936642574669964</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2974301620154604</v>
+        <v>0.2974301620154605</v>
       </c>
     </row>
     <row r="22">
@@ -2244,10 +2244,10 @@
         <v>0.1917887218436119</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01902123195766624</v>
+        <v>0.04187837481480912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3885457310587719</v>
+        <v>0.388545731058772</v>
       </c>
       <c r="G22" t="n">
         <v>0.9721482677620168</v>
@@ -2259,7 +2259,7 @@
         <v>1.787589630221284</v>
       </c>
       <c r="J22" t="n">
-        <v>1.996983021551175</v>
+        <v>1.996983021551176</v>
       </c>
       <c r="K22" t="n">
         <v>0.7403235173354301</v>
@@ -2286,7 +2286,7 @@
         <v>5.559192705108853</v>
       </c>
       <c r="S22" t="n">
-        <v>2.747926388159877</v>
+        <v>2.747926388159878</v>
       </c>
       <c r="T22" t="n">
         <v>1.018192624484374</v>
@@ -2295,16 +2295,16 @@
         <v>4.875974361594771</v>
       </c>
       <c r="V22" t="n">
-        <v>1.782183683489706</v>
+        <v>1.782183683489707</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5120396791290689</v>
+        <v>0.5120396791290688</v>
       </c>
       <c r="X22" t="n">
         <v>3.37127182781999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.448662817510347</v>
+        <v>0.4486628175103471</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0.1314107846027079</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004726171573929482</v>
+        <v>0.02758331443107228</v>
       </c>
       <c r="F23" t="n">
         <v>0.3483793762103373</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3810092987483555</v>
+        <v>0.3810092987483554</v>
       </c>
       <c r="H23" t="n">
         <v>0.1128809121381308</v>
@@ -2342,52 +2342,52 @@
         <v>0.860236139121981</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3022198226326689</v>
+        <v>0.3022198226326688</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07997828771048121</v>
+        <v>0.07997828771048116</v>
       </c>
       <c r="L23" t="n">
         <v>0.7490336801424853</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.2006511891275418</v>
+        <v>-0.200651189127542</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1500640176240825</v>
+        <v>-0.1500640176240824</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.05988595942345976</v>
+        <v>-0.0598859594234602</v>
       </c>
       <c r="P23" t="n">
         <v>-0.3556879809476408</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.2694665441384662</v>
+        <v>-0.2694665441384663</v>
       </c>
       <c r="R23" t="n">
         <v>-0.2321935041901599</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.2417355731114834</v>
+        <v>-0.2417355731114836</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.2198279225758769</v>
+        <v>-0.2198279225758767</v>
       </c>
       <c r="U23" t="n">
         <v>-0.0620979815448135</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1074744139411408</v>
+        <v>-0.107474413941141</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.1155119054361975</v>
+        <v>-0.1155119054361974</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0948312149769468</v>
+        <v>0.09483121497694635</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.01373351640551229</v>
+        <v>-0.01373351640551237</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         <v>0.0005806494413749669</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03108142844218017</v>
+        <v>-0.008224285585037329</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04881867001384141</v>
+        <v>0.04881867001384144</v>
       </c>
       <c r="G24" t="n">
         <v>0.1520915874520617</v>
@@ -2422,19 +2422,19 @@
         <v>0.02858161165385914</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3995362161399354</v>
+        <v>0.3995362161399355</v>
       </c>
       <c r="J24" t="n">
-        <v>0.360440103251755</v>
+        <v>0.3604401032517549</v>
       </c>
       <c r="K24" t="n">
         <v>0.1002931925971653</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8343205501635003</v>
+        <v>0.8343205501635002</v>
       </c>
       <c r="M24" t="n">
-        <v>0.456738234722719</v>
+        <v>0.4567382347227191</v>
       </c>
       <c r="N24" t="n">
         <v>0.101895090635322</v>
@@ -2443,7 +2443,7 @@
         <v>1.057118538304574</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5528742735293236</v>
+        <v>0.5528742735293238</v>
       </c>
       <c r="Q24" t="n">
         <v>0.139109996923188</v>
@@ -2452,7 +2452,7 @@
         <v>1.249803671908152</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5542715764757541</v>
+        <v>0.554271576475754</v>
       </c>
       <c r="T24" t="n">
         <v>0.1157160807206752</v>
@@ -2461,16 +2461,16 @@
         <v>1.258407780260924</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4149190114113276</v>
+        <v>0.4149190114113274</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07666610372710519</v>
+        <v>0.07666610372710522</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9932232739669293</v>
+        <v>0.9932232739669291</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1142987406645076</v>
+        <v>0.1142987406645075</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>-0.1381073716893747</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.05923009113879822</v>
+        <v>-0.03637294828165535</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2723433728256953</v>
+        <v>-0.2723433728256952</v>
       </c>
       <c r="G25" t="n">
         <v>-0.3882409758807058</v>
@@ -2505,10 +2505,10 @@
         <v>-0.1548557587633591</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6441219302983383</v>
+        <v>-0.6441219302983385</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2856970921814868</v>
+        <v>-0.2856970921814872</v>
       </c>
       <c r="K25" t="n">
         <v>-0.1589060471502892</v>
@@ -2517,16 +2517,16 @@
         <v>-0.3114895636576078</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2084621575746024</v>
+        <v>0.2084621575746022</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0007139015383885727</v>
+        <v>0.0007139015383885172</v>
       </c>
       <c r="O25" t="n">
-        <v>0.646680293215407</v>
+        <v>0.6466802932154072</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5718724776904717</v>
+        <v>0.5718724776904718</v>
       </c>
       <c r="Q25" t="n">
         <v>0.1602925294432974</v>
@@ -2535,7 +2535,7 @@
         <v>1.264193521016114</v>
       </c>
       <c r="S25" t="n">
-        <v>0.652332198731831</v>
+        <v>0.6523321987318309</v>
       </c>
       <c r="T25" t="n">
         <v>0.1738810998111571</v>
@@ -2544,16 +2544,16 @@
         <v>1.390901515353082</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4960271444415366</v>
+        <v>0.4960271444415363</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1125061571711009</v>
+        <v>0.112506157171101</v>
       </c>
       <c r="X25" t="n">
         <v>1.122503074868493</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1407883603663409</v>
+        <v>0.1407883603663408</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1054921211986016</v>
+        <v>0.1054921211986017</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001348005516979701</v>
+        <v>0.02420514837412251</v>
       </c>
       <c r="F26" t="n">
         <v>0.2711830352013521</v>
@@ -2585,16 +2585,16 @@
         <v>0.2925468440780281</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08639796461825583</v>
+        <v>0.08639796461825582</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6567208137862585</v>
+        <v>0.6567208137862584</v>
       </c>
       <c r="J26" t="n">
         <v>0.3057531442520547</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07865032527208596</v>
+        <v>0.07865032527208593</v>
       </c>
       <c r="L26" t="n">
         <v>0.7358123997822927</v>
@@ -2603,13 +2603,13 @@
         <v>0.123329484093434</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01949343684546512</v>
+        <v>-0.01949343684546506</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4855640297592765</v>
+        <v>0.4855640297592769</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09292757204908608</v>
+        <v>0.09292757204908586</v>
       </c>
       <c r="Q26" t="n">
         <v>-0.07458478404501601</v>
@@ -2618,25 +2618,25 @@
         <v>0.4920337718049415</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1647321547759026</v>
+        <v>0.1647321547759022</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.04517974066089286</v>
+        <v>-0.04517974066089281</v>
       </c>
       <c r="U26" t="n">
         <v>0.5960355049658936</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1541980868345095</v>
+        <v>0.1541980868345093</v>
       </c>
       <c r="W26" t="n">
         <v>-0.0280162872675386</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5450392243281084</v>
+        <v>0.5450392243281081</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0530311712778915</v>
+        <v>0.05303117127789145</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0.5047322252969632</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09367365996175318</v>
+        <v>0.116530802818896</v>
       </c>
       <c r="F27" t="n">
         <v>1.092653160505588</v>
@@ -2674,7 +2674,7 @@
         <v>3.610261447525018</v>
       </c>
       <c r="J27" t="n">
-        <v>2.911501855701338</v>
+        <v>2.911501855701339</v>
       </c>
       <c r="K27" t="n">
         <v>1.107479509631532</v>
@@ -2742,10 +2742,10 @@
         <v>0.00492186513968397</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0286053071914724</v>
+        <v>-0.005748164334329529</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03081233871921843</v>
+        <v>0.03081233871921846</v>
       </c>
       <c r="G28" t="n">
         <v>0.2366674927851844</v>
@@ -2754,10 +2754,10 @@
         <v>0.06211216758196472</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5053897599691937</v>
+        <v>0.5053897599691939</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6991009504372003</v>
+        <v>0.6991009504372001</v>
       </c>
       <c r="K28" t="n">
         <v>0.2310653592213479</v>
@@ -2769,7 +2769,7 @@
         <v>1.230408965973447</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4120965045247185</v>
+        <v>0.4120965045247184</v>
       </c>
       <c r="O28" t="n">
         <v>2.357588392441725</v>
@@ -2784,7 +2784,7 @@
         <v>2.696653736695724</v>
       </c>
       <c r="S28" t="n">
-        <v>1.315355336757898</v>
+        <v>1.315355336757899</v>
       </c>
       <c r="T28" t="n">
         <v>0.4336378749164996</v>
@@ -2825,13 +2825,13 @@
         <v>0.2139202632269361</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0236423809059402</v>
+        <v>0.04649952376308297</v>
       </c>
       <c r="F29" t="n">
         <v>0.5331550683265265</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6598410474073457</v>
+        <v>0.6598410474073456</v>
       </c>
       <c r="H29" t="n">
         <v>0.2098218315874936</v>
@@ -2843,7 +2843,7 @@
         <v>0.6167628141192374</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2057494359569627</v>
+        <v>0.2057494359569626</v>
       </c>
       <c r="L29" t="n">
         <v>1.303317165262806</v>
@@ -2852,7 +2852,7 @@
         <v>-0.07808449678820173</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0979430808593108</v>
+        <v>-0.09794308085931058</v>
       </c>
       <c r="O29" t="n">
         <v>0.14098240989403</v>
@@ -2861,13 +2861,13 @@
         <v>-0.3670756077754667</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.2831933138776465</v>
+        <v>-0.2831933138776466</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.2449788660954924</v>
+        <v>-0.2449788660954928</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2879444998749328</v>
+        <v>-0.2879444998749332</v>
       </c>
       <c r="T29" t="n">
         <v>-0.2466183720322151</v>
@@ -2876,16 +2876,16 @@
         <v>-0.1290513138882798</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.1478698844231063</v>
+        <v>-0.1478698844231068</v>
       </c>
       <c r="W29" t="n">
         <v>-0.1362963942958595</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0305286411448884</v>
+        <v>0.03052864114488796</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.02606213987363099</v>
+        <v>-0.0260621398736311</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0.1791773474622855</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0178984581159965</v>
+        <v>0.04075560097313932</v>
       </c>
       <c r="F30" t="n">
         <v>0.4137577253264975</v>
@@ -2923,7 +2923,7 @@
         <v>1.284403430834653</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9674825891541208</v>
+        <v>0.967482589154121</v>
       </c>
       <c r="K30" t="n">
         <v>0.3390221117699957</v>
@@ -2935,13 +2935,13 @@
         <v>1.021138253918221</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341298571592398</v>
+        <v>0.3412985715923981</v>
       </c>
       <c r="O30" t="n">
         <v>1.991253006441011</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9730489986286432</v>
+        <v>0.9730489986286431</v>
       </c>
       <c r="Q30" t="n">
         <v>0.2971317071009006</v>
@@ -2950,7 +2950,7 @@
         <v>1.931688912038533</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8767856039300084</v>
+        <v>0.8767856039300083</v>
       </c>
       <c r="T30" t="n">
         <v>0.2436595439896906</v>
@@ -2965,7 +2965,7 @@
         <v>0.1139993577634475</v>
       </c>
       <c r="X30" t="n">
-        <v>1.315838115510145</v>
+        <v>1.315838115510144</v>
       </c>
       <c r="Y30" t="n">
         <v>0.1591547405600678</v>
@@ -2991,7 +2991,7 @@
         <v>0.1575998997564883</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01699641330975449</v>
+        <v>0.03985355616689736</v>
       </c>
       <c r="F31" t="n">
         <v>0.3185550530228893</v>
@@ -3000,7 +3000,7 @@
         <v>0.6434024817403299</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2186948141632012</v>
+        <v>0.2186948141632011</v>
       </c>
       <c r="I31" t="n">
         <v>1.186741649328189</v>
@@ -3021,7 +3021,7 @@
         <v>0.7820705662604117</v>
       </c>
       <c r="O31" t="n">
-        <v>3.837172849760898</v>
+        <v>3.837172849760899</v>
       </c>
       <c r="P31" t="n">
         <v>2.311285080285501</v>
@@ -3048,16 +3048,16 @@
         <v>0.3614306476850903</v>
       </c>
       <c r="X31" t="n">
-        <v>2.601484916494124</v>
+        <v>2.601484916494125</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3452878073765645</v>
+        <v>0.3452878073765646</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9658695175545458</v>
+        <v>0.9658695175545456</v>
       </c>
     </row>
     <row r="32">
@@ -3074,19 +3074,19 @@
         <v>0.05268842799926161</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.01543302064940539</v>
+        <v>0.007424122207737508</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0961906878353786</v>
+        <v>0.09619068783537871</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5029472251143634</v>
+        <v>0.5029472251143635</v>
       </c>
       <c r="H32" t="n">
         <v>0.1608784611988044</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9295570516818662</v>
+        <v>0.9295570516818663</v>
       </c>
       <c r="J32" t="n">
         <v>1.364363716958652</v>
@@ -3104,7 +3104,7 @@
         <v>0.9034590937411988</v>
       </c>
       <c r="O32" t="n">
-        <v>4.408727358306196</v>
+        <v>4.408727358306195</v>
       </c>
       <c r="P32" t="n">
         <v>2.771231781765739</v>
@@ -3131,10 +3131,10 @@
         <v>0.4661130386797341</v>
       </c>
       <c r="X32" t="n">
-        <v>3.049668966132945</v>
+        <v>3.049668966132946</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4065553767631806</v>
+        <v>0.4065553767631807</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0.1874475061453029</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01654511070695846</v>
+        <v>0.03940225356410132</v>
       </c>
       <c r="F33" t="n">
         <v>0.4065520623533949</v>
@@ -3208,13 +3208,13 @@
         <v>3.62524779132205</v>
       </c>
       <c r="V33" t="n">
-        <v>1.299551344486649</v>
+        <v>1.29955134448665</v>
       </c>
       <c r="W33" t="n">
         <v>0.3521040073760849</v>
       </c>
       <c r="X33" t="n">
-        <v>2.535833036187172</v>
+        <v>2.535833036187173</v>
       </c>
       <c r="Y33" t="n">
         <v>0.329294438377254</v>
@@ -3240,7 +3240,7 @@
         <v>0.3744561838131573</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06158516408767547</v>
+        <v>0.08444230694481825</v>
       </c>
       <c r="F34" t="n">
         <v>0.8424991192732382</v>
@@ -3255,7 +3255,7 @@
         <v>2.655320203874775</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931696097693317</v>
+        <v>1.931696097693318</v>
       </c>
       <c r="K34" t="n">
         <v>0.7226645373255365</v>
@@ -3264,13 +3264,13 @@
         <v>3.560673843254485</v>
       </c>
       <c r="M34" t="n">
-        <v>1.715961696626653</v>
+        <v>1.715961696626654</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6251712782327206</v>
+        <v>0.6251712782327207</v>
       </c>
       <c r="O34" t="n">
-        <v>3.148009610030405</v>
+        <v>3.148009610030404</v>
       </c>
       <c r="P34" t="n">
         <v>1.391278720636396</v>
@@ -3323,10 +3323,10 @@
         <v>0.09625559612445664</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.007323341126467788</v>
+        <v>0.01553380173067503</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2577890328264515</v>
+        <v>0.2577890328264516</v>
       </c>
       <c r="G35" t="n">
         <v>0.4395888031036585</v>
@@ -3335,10 +3335,10 @@
         <v>0.1307447653439755</v>
       </c>
       <c r="I35" t="n">
-        <v>0.939255046795939</v>
+        <v>0.9392550467959392</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6664574885082711</v>
+        <v>0.6664574885082712</v>
       </c>
       <c r="K35" t="n">
         <v>0.222235869216401</v>
@@ -3347,7 +3347,7 @@
         <v>1.369982463493588</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5777335808273409</v>
+        <v>0.5777335808273411</v>
       </c>
       <c r="N35" t="n">
         <v>0.1555463696163988</v>
@@ -3356,10 +3356,10 @@
         <v>1.253636154394971</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5395981219542459</v>
+        <v>0.5395981219542461</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.122247723704882</v>
+        <v>0.1222477237048821</v>
       </c>
       <c r="R35" t="n">
         <v>1.231427872651467</v>
@@ -3374,13 +3374,13 @@
         <v>1.190747983120071</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3746821369625005</v>
+        <v>0.3746821369625003</v>
       </c>
       <c r="W35" t="n">
         <v>0.053017152729779</v>
       </c>
       <c r="X35" t="n">
-        <v>0.9292580267535945</v>
+        <v>0.9292580267535943</v>
       </c>
       <c r="Y35" t="n">
         <v>0.1028863035791868</v>
@@ -3406,10 +3406,10 @@
         <v>-0.06442214542569087</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.04267963853978142</v>
+        <v>-0.01982249568263854</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1297686827005499</v>
+        <v>-0.1297686827005498</v>
       </c>
       <c r="G36" t="n">
         <v>-0.03349878888119934</v>
@@ -3421,7 +3421,7 @@
         <v>-0.0164393132499433</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3760323527205794</v>
+        <v>0.3760323527205791</v>
       </c>
       <c r="K36" t="n">
         <v>0.1014657393476206</v>
@@ -3433,7 +3433,7 @@
         <v>1.106270927399389</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3615059099762517</v>
+        <v>0.3615059099762516</v>
       </c>
       <c r="O36" t="n">
         <v>2.152369269897141</v>
@@ -3489,22 +3489,22 @@
         <v>0.1616706637051231</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01058045888158704</v>
+        <v>0.03343760173872984</v>
       </c>
       <c r="F37" t="n">
         <v>0.4075693859246995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5540476587518053</v>
+        <v>0.5540476587518054</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1728944155861114</v>
+        <v>0.1728944155861113</v>
       </c>
       <c r="I37" t="n">
         <v>1.169605008286962</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6373473481987281</v>
+        <v>0.6373473481987282</v>
       </c>
       <c r="K37" t="n">
         <v>0.2120784167730589</v>
@@ -3516,7 +3516,7 @@
         <v>0.2490388689022107</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02956681548669654</v>
+        <v>0.02956681548669665</v>
       </c>
       <c r="O37" t="n">
         <v>0.6951339055309536</v>
@@ -3531,7 +3531,7 @@
         <v>0.4904292846023117</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1128804592832751</v>
+        <v>0.1128804592832748</v>
       </c>
       <c r="T37" t="n">
         <v>-0.0765543102950364</v>
@@ -3540,16 +3540,16 @@
         <v>0.530495102217202</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1134854242862664</v>
+        <v>0.1134854242862662</v>
       </c>
       <c r="W37" t="n">
         <v>-0.04307185185187232</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4800619972586031</v>
+        <v>0.4800619972586029</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03887017504417689</v>
+        <v>0.03887017504417684</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0.4051283356291731</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0737450413057866</v>
+        <v>0.09660218416292943</v>
       </c>
       <c r="F38" t="n">
         <v>0.872882129371457</v>
@@ -3587,7 +3587,7 @@
         <v>2.779063505140901</v>
       </c>
       <c r="J38" t="n">
-        <v>2.253305732418657</v>
+        <v>2.253305732418658</v>
       </c>
       <c r="K38" t="n">
         <v>0.8457797606952275</v>
@@ -3605,7 +3605,7 @@
         <v>4.439777957713368</v>
       </c>
       <c r="P38" t="n">
-        <v>2.277122199802024</v>
+        <v>2.277122199802023</v>
       </c>
       <c r="Q38" t="n">
         <v>0.8331409153827811</v>
@@ -3623,7 +3623,7 @@
         <v>3.488515267445568</v>
       </c>
       <c r="V38" t="n">
-        <v>1.219394787655272</v>
+        <v>1.219394787655273</v>
       </c>
       <c r="W38" t="n">
         <v>0.2990771811061042</v>
@@ -3655,10 +3655,10 @@
         <v>0.3178653685930352</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04604712081261455</v>
+        <v>0.06890426366975733</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7349197681660342</v>
+        <v>0.734919768166034</v>
       </c>
       <c r="G39" t="n">
         <v>1.187621594410302</v>
@@ -3667,7 +3667,7 @@
         <v>0.3950845761721888</v>
       </c>
       <c r="I39" t="n">
-        <v>2.328061577272927</v>
+        <v>2.328061577272928</v>
       </c>
       <c r="J39" t="n">
         <v>1.613619784587363</v>
@@ -3682,7 +3682,7 @@
         <v>1.269414331066337</v>
       </c>
       <c r="N39" t="n">
-        <v>0.4424797606893315</v>
+        <v>0.4424797606893316</v>
       </c>
       <c r="O39" t="n">
         <v>2.401691251530178</v>
@@ -3697,7 +3697,7 @@
         <v>1.91729906293057</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7787249816739314</v>
+        <v>0.7787249816739313</v>
       </c>
       <c r="T39" t="n">
         <v>0.1854945248992087</v>
@@ -3706,7 +3706,7 @@
         <v>1.648021472600379</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5151682262922535</v>
+        <v>0.5151682262922533</v>
       </c>
       <c r="W39" t="n">
         <v>0.0781593043194517</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.4891719087694509</v>
+        <v>0.4891719087694508</v>
       </c>
     </row>
     <row r="40">
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0858577721675617</v>
+        <v>-0.08585777216756167</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.04616816911444507</v>
+        <v>-0.02331102625730221</v>
       </c>
       <c r="F40" t="n">
         <v>-0.1467576904238682</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.2824475872251654</v>
+        <v>-0.2824475872251653</v>
       </c>
       <c r="H40" t="n">
         <v>-0.1179283427619769</v>
@@ -3753,7 +3753,7 @@
         <v>-0.422716847525749</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.3062816262609775</v>
+        <v>-0.3062816262609778</v>
       </c>
       <c r="K40" t="n">
         <v>-0.1652350279663855</v>
@@ -3762,7 +3762,7 @@
         <v>-0.335511426877882</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1186612081158098</v>
+        <v>-0.11866120811581</v>
       </c>
       <c r="N40" t="n">
         <v>-0.1267959948076187</v>
@@ -3780,25 +3780,25 @@
         <v>0.5287853703183099</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2515072395736233</v>
+        <v>0.2515072395736231</v>
       </c>
       <c r="T40" t="n">
-        <v>0.003817038073978429</v>
+        <v>0.003817038073978485</v>
       </c>
       <c r="U40" t="n">
         <v>0.7313550992476008</v>
       </c>
       <c r="V40" t="n">
-        <v>0.2346718357321638</v>
+        <v>0.2346718357321634</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01928161472711376</v>
+        <v>0.01928161472711382</v>
       </c>
       <c r="X40" t="n">
-        <v>0.6729697187547781</v>
+        <v>0.6729697187547778</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.075856045448533</v>
+        <v>0.07585604544853294</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>-0.1074352198733589</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.04707021392068707</v>
+        <v>-0.02421307106354419</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2419603627274764</v>
+        <v>-0.2419603627274763</v>
       </c>
       <c r="G41" t="n">
         <v>-0.28633413656237</v>
@@ -3833,10 +3833,10 @@
         <v>-0.1108807343537463</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.520378629032213</v>
+        <v>-0.5203786290322132</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03591254254385379</v>
+        <v>0.03591254254385323</v>
       </c>
       <c r="K41" t="n">
         <v>-0.03579082378059817</v>
@@ -3845,10 +3845,10 @@
         <v>0.216351360742328</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9789901963558942</v>
+        <v>0.978990196355894</v>
       </c>
       <c r="N41" t="n">
-        <v>0.313975999860395</v>
+        <v>0.3139759998603949</v>
       </c>
       <c r="O41" t="n">
         <v>1.938448640898371</v>
@@ -3872,7 +3872,7 @@
         <v>2.64021515603103</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9789766755108711</v>
+        <v>0.9789766755108712</v>
       </c>
       <c r="W41" t="n">
         <v>0.2667129046487566</v>
@@ -3904,7 +3904,7 @@
         <v>0.2396971056671159</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02960703273131161</v>
+        <v>0.05246417558845444</v>
       </c>
       <c r="F42" t="n">
         <v>0.5321377447552219</v>
@@ -3919,7 +3919,7 @@
         <v>1.903141169164615</v>
       </c>
       <c r="J42" t="n">
-        <v>1.637737640286239</v>
+        <v>1.63773764028624</v>
       </c>
       <c r="K42" t="n">
         <v>0.6032223698951513</v>
@@ -3928,7 +3928,7 @@
         <v>3.030412221354439</v>
       </c>
       <c r="M42" t="n">
-        <v>1.920518369977725</v>
+        <v>1.920518369977726</v>
       </c>
       <c r="N42" t="n">
         <v>0.7005602378139562</v>
@@ -3949,13 +3949,13 @@
         <v>1.586017668719525</v>
       </c>
       <c r="T42" t="n">
-        <v>0.5302067685513714</v>
+        <v>0.5302067685513713</v>
       </c>
       <c r="U42" t="n">
         <v>2.965701375216568</v>
       </c>
       <c r="V42" t="n">
-        <v>1.038196035777276</v>
+        <v>1.038196035777277</v>
       </c>
       <c r="W42" t="n">
         <v>0.2588794649320977</v>
@@ -3987,7 +3987,7 @@
         <v>0.1923428155211389</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02274033609969818</v>
+        <v>0.045597478956841</v>
       </c>
       <c r="F43" t="n">
         <v>0.4379523960229184</v>
@@ -4002,10 +4002,10 @@
         <v>1.293348309553087</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9589569829240685</v>
+        <v>0.9589569829240686</v>
       </c>
       <c r="K43" t="n">
-        <v>0.33519364014275</v>
+        <v>0.3351936401427499</v>
       </c>
       <c r="L43" t="n">
         <v>1.855179952883016</v>
@@ -4020,16 +4020,16 @@
         <v>1.986902253213918</v>
       </c>
       <c r="P43" t="n">
-        <v>0.9711604738813914</v>
+        <v>0.9711604738813913</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2939962036217749</v>
+        <v>0.293996203621775</v>
       </c>
       <c r="R43" t="n">
         <v>1.926098474687181</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8796069882945974</v>
+        <v>0.8796069882945973</v>
       </c>
       <c r="T43" t="n">
         <v>0.2459516040785932</v>
@@ -4070,13 +4070,13 @@
         <v>-0.1035062768886505</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.05089968258043288</v>
+        <v>-0.02804253972328999</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2311596944059561</v>
+        <v>-0.231159694405956</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1306267105441333</v>
+        <v>-0.1306267105441332</v>
       </c>
       <c r="H44" t="n">
         <v>-0.06131169938727302</v>
@@ -4085,7 +4085,7 @@
         <v>-0.2288995173040993</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3880912805700178</v>
+        <v>0.3880912805700173</v>
       </c>
       <c r="K44" t="n">
         <v>0.1039662485364711</v>
@@ -4097,7 +4097,7 @@
         <v>1.431822946855083</v>
       </c>
       <c r="N44" t="n">
-        <v>0.490546148538564</v>
+        <v>0.4905461485385639</v>
       </c>
       <c r="O44" t="n">
         <v>2.702170012306972</v>
@@ -4106,7 +4106,7 @@
         <v>1.902497982014008</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7300262841617899</v>
+        <v>0.7300262841617898</v>
       </c>
       <c r="R44" t="n">
         <v>3.433666374596158</v>
@@ -4124,7 +4124,7 @@
         <v>1.199619321672001</v>
       </c>
       <c r="W44" t="n">
-        <v>0.34488188250841</v>
+        <v>0.3448818825084101</v>
       </c>
       <c r="X44" t="n">
         <v>2.343172648782967</v>
@@ -4153,10 +4153,10 @@
         <v>0.4442124670921327</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08196508534643807</v>
+        <v>0.1048222282035809</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9742731410768632</v>
+        <v>0.9742731410768631</v>
       </c>
       <c r="G45" t="n">
         <v>1.577025649380234</v>
@@ -4168,7 +4168,7 @@
         <v>2.991523709195056</v>
       </c>
       <c r="J45" t="n">
-        <v>2.241246804569219</v>
+        <v>2.24124680456922</v>
       </c>
       <c r="K45" t="n">
         <v>0.8432792515063769</v>
@@ -4180,7 +4180,7 @@
         <v>2.160937715952251</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8093931379924146</v>
+        <v>0.8093931379924149</v>
       </c>
       <c r="O45" t="n">
         <v>3.889977215303538</v>
@@ -4204,10 +4204,10 @@
         <v>2.829675316137473</v>
       </c>
       <c r="V45" t="n">
-        <v>0.957880882912761</v>
+        <v>0.9578808829127611</v>
       </c>
       <c r="W45" t="n">
-        <v>0.2087171007997812</v>
+        <v>0.2087171007997811</v>
       </c>
       <c r="X45" t="n">
         <v>1.958706512265511</v>
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07509042113226003</v>
+        <v>0.07509042113226</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.001919796022256216</v>
+        <v>0.02093734683488667</v>
       </c>
       <c r="F46" t="n">
         <v>0.1337793609067001</v>
@@ -4248,25 +4248,25 @@
         <v>0.1217538947138384</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6559676973906191</v>
+        <v>0.6559676973906189</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9951337664723835</v>
+        <v>0.9951337664723834</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3426951677093015</v>
+        <v>0.3426951677093016</v>
       </c>
       <c r="L46" t="n">
         <v>1.871380827173138</v>
       </c>
       <c r="M46" t="n">
-        <v>1.996222966050585</v>
+        <v>1.996222966050584</v>
       </c>
       <c r="N46" t="n">
         <v>0.72994962949564</v>
       </c>
       <c r="O46" t="n">
-        <v>3.636304480443408</v>
+        <v>3.636304480443409</v>
       </c>
       <c r="P46" t="n">
         <v>2.322672707113327</v>
@@ -4290,13 +4290,13 @@
         <v>1.380976669583136</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3822151365447524</v>
+        <v>0.3822151365447523</v>
       </c>
       <c r="X46" t="n">
         <v>2.665787490326183</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3576164308446832</v>
+        <v>0.3576164308446833</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4316,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3137946046444003</v>
+        <v>0.3137946046444004</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05246307524078199</v>
+        <v>0.07532021809792486</v>
       </c>
       <c r="F47" t="n">
         <v>0.6459054352642239</v>
@@ -4328,13 +4328,13 @@
         <v>1.276976417398827</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4408849747492787</v>
+        <v>0.4408849747492786</v>
       </c>
       <c r="I47" t="n">
         <v>2.345198218314155</v>
       </c>
       <c r="J47" t="n">
-        <v>2.285949194347586</v>
+        <v>2.285949194347587</v>
       </c>
       <c r="K47" t="n">
         <v>0.8546092507001743</v>
@@ -4352,7 +4352,7 @@
         <v>5.543730195760123</v>
       </c>
       <c r="P47" t="n">
-        <v>3.180018880037233</v>
+        <v>3.180018880037232</v>
       </c>
       <c r="Q47" t="n">
         <v>1.232310946007058</v>
@@ -4364,7 +4364,7 @@
         <v>2.710181614490195</v>
       </c>
       <c r="T47" t="n">
-        <v>0.9982783552947438</v>
+        <v>0.9982783552947441</v>
       </c>
       <c r="U47" t="n">
         <v>4.806901634859144</v>
@@ -4376,10 +4376,10 @@
         <v>0.4826618038564143</v>
       </c>
       <c r="X47" t="n">
-        <v>3.307981233844102</v>
+        <v>3.307981233844103</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.4390827531906221</v>
+        <v>0.4390827531906222</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0.2485213580276603</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03197278946430552</v>
+        <v>0.05482993232144832</v>
       </c>
       <c r="F48" t="n">
         <v>0.5743387467462657</v>
@@ -4429,10 +4429,10 @@
         <v>1.145276292492279</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3918891661408647</v>
+        <v>0.3918891661408648</v>
       </c>
       <c r="O48" t="n">
-        <v>2.196472128985595</v>
+        <v>2.196472128985594</v>
       </c>
       <c r="P48" t="n">
         <v>0.9635498965480691</v>
@@ -4441,10 +4441,10 @@
         <v>0.286540440840846</v>
       </c>
       <c r="R48" t="n">
-        <v>1.924493987484552</v>
+        <v>1.924493987484551</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8277552928019699</v>
+        <v>0.8277552928019698</v>
       </c>
       <c r="T48" t="n">
         <v>0.2145770344444496</v>
@@ -4453,7 +4453,7 @@
         <v>1.714268340146458</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5557222928073579</v>
+        <v>0.5557222928073577</v>
       </c>
       <c r="W48" t="n">
         <v>0.09607933104144958</v>
@@ -4485,10 +4485,10 @@
         <v>-0.2078636549683501</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.07961001239756083</v>
+        <v>-0.05675286954041794</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.4041173946293203</v>
+        <v>-0.4041173946293202</v>
       </c>
       <c r="G49" t="n">
         <v>-0.5872757368619752</v>
@@ -4497,10 +4497,10 @@
         <v>-0.2305359649336005</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.9803254356186197</v>
+        <v>-0.9803254356186195</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.5952477990573888</v>
+        <v>-0.5952477990573892</v>
       </c>
       <c r="K49" t="n">
         <v>-0.2795207613311296</v>
@@ -4509,16 +4509,16 @@
         <v>-0.8339301966275026</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.2365138617509954</v>
+        <v>-0.2365138617509956</v>
       </c>
       <c r="N49" t="n">
         <v>-0.1835079582213056</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.09528731205772623</v>
+        <v>-0.09528731205772667</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1365330762688226</v>
+        <v>0.1365330762688228</v>
       </c>
       <c r="Q49" t="n">
         <v>-0.01772695743184682</v>
@@ -4530,22 +4530,22 @@
         <v>0.2892520132433054</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02373130726360878</v>
+        <v>0.02373130726360884</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8004278259832291</v>
+        <v>0.8004278259832289</v>
       </c>
       <c r="V49" t="n">
-        <v>0.2745915181147135</v>
+        <v>0.2745915181147132</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0486594899997683</v>
+        <v>0.04865948999976835</v>
       </c>
       <c r="X49" t="n">
-        <v>0.7362603127306662</v>
+        <v>0.7362603127306659</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.08543610976825786</v>
+        <v>0.0854361097682578</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -4568,13 +4568,13 @@
         <v>0.1353397275874162</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0008967029141836724</v>
+        <v>0.02375384577132648</v>
       </c>
       <c r="F50" t="n">
         <v>0.3591800445318576</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5367167247665923</v>
+        <v>0.5367167247665924</v>
       </c>
       <c r="H50" t="n">
         <v>0.1624499471046041</v>
@@ -4583,7 +4583,7 @@
         <v>1.151715250850095</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6543985606588328</v>
+        <v>0.654398560658833</v>
       </c>
       <c r="K50" t="n">
         <v>0.2197353600275505</v>
@@ -4592,13 +4592,13 @@
         <v>1.364582172063547</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2521815613716469</v>
+        <v>0.2521815613716472</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0265061310540865</v>
+        <v>0.02650613105408656</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7038354119851404</v>
+        <v>0.7038354119851402</v>
       </c>
       <c r="P50" t="n">
         <v>0.08909404421026745</v>
@@ -4616,19 +4616,19 @@
         <v>-0.08113843047284169</v>
       </c>
       <c r="U50" t="n">
-        <v>0.5319080318119767</v>
+        <v>0.5319080318119762</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1131682322199891</v>
+        <v>0.1131682322199887</v>
       </c>
       <c r="W50" t="n">
-        <v>-0.03734292757654403</v>
+        <v>-0.03734292757654398</v>
       </c>
       <c r="X50" t="n">
-        <v>0.4793873440211562</v>
+        <v>0.4793873440211558</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.037037802278581</v>
+        <v>0.03703780227858092</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -4651,10 +4651,10 @@
         <v>-0.3074675446361402</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09953863105352739</v>
+        <v>-0.07668148819638451</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.6238884257634509</v>
+        <v>-0.6238884257634508</v>
       </c>
       <c r="G51" t="n">
         <v>-1.030480378531809</v>
@@ -4663,10 +4663,10 @@
         <v>-0.3822681535901902</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.811523378002738</v>
+        <v>-1.811523378002737</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.253443922340069</v>
+        <v>-1.25344392234007</v>
       </c>
       <c r="K51" t="n">
         <v>-0.5412205102674346</v>
@@ -4678,7 +4678,7 @@
         <v>-0.8103419583548064</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.4137293858805513</v>
+        <v>-0.4137293858805514</v>
       </c>
       <c r="O51" t="n">
         <v>-1.055526299556723</v>
@@ -4687,31 +4687,31 @@
         <v>-0.2949727973140077</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.1945616884843132</v>
+        <v>-0.1945616884843133</v>
       </c>
       <c r="R51" t="n">
         <v>-0.157085819960793</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.01633370802341449</v>
+        <v>-0.01633370802341472</v>
       </c>
       <c r="T51" t="n">
         <v>-0.09045979547199062</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2740816097672929</v>
+        <v>0.2740816097672925</v>
       </c>
       <c r="V51" t="n">
-        <v>0.09418574640241084</v>
+        <v>0.0941857464024104</v>
       </c>
       <c r="W51" t="n">
-        <v>-0.00586053686255894</v>
+        <v>-0.005860536862558885</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4156694308997917</v>
+        <v>0.4156694308997912</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.04607722816948534</v>
+        <v>0.04607722816948526</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -4731,28 +4731,28 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.06008092972738184</v>
+        <v>-0.06008092972738187</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04020351728907365</v>
+        <v>-0.01734637443193075</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.1477750139951729</v>
+        <v>-0.1477750139951728</v>
       </c>
       <c r="G52" t="n">
         <v>0.05107711645192325</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00392403830146118</v>
+        <v>0.003924038301461152</v>
       </c>
       <c r="I52" t="n">
         <v>0.08941423057931508</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7146931999060246</v>
+        <v>0.7146931999060242</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2322379059718031</v>
+        <v>0.2322379059718032</v>
       </c>
       <c r="L52" t="n">
         <v>1.391583629213751</v>
@@ -4761,7 +4761,7 @@
         <v>1.879941658650117</v>
       </c>
       <c r="N52" t="n">
-        <v>0.6717073238656481</v>
+        <v>0.671707323865648</v>
       </c>
       <c r="O52" t="n">
         <v>3.452839124034292</v>
@@ -4770,7 +4770,7 @@
         <v>2.34161443293016</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.9143167779951854</v>
+        <v>0.9143167779951853</v>
       </c>
       <c r="R52" t="n">
         <v>4.150698726037279</v>
@@ -4794,7 +4794,7 @@
         <v>2.728740757683347</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.3662803087816101</v>
+        <v>0.3662803087816102</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -4817,10 +4817,10 @@
         <v>0.3573617727695955</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06057275476371959</v>
+        <v>0.08342989762086236</v>
       </c>
       <c r="F53" t="n">
-        <v>0.807503780255297</v>
+        <v>0.8075037802552969</v>
       </c>
       <c r="G53" t="n">
         <v>1.213617995388121</v>
@@ -4844,13 +4844,13 @@
         <v>1.264700292362183</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4470707873382466</v>
+        <v>0.4470707873382467</v>
       </c>
       <c r="O53" t="n">
         <v>2.388638991848897</v>
       </c>
       <c r="P53" t="n">
-        <v>0.9483852202257397</v>
+        <v>0.9483852202257395</v>
       </c>
       <c r="Q53" t="n">
         <v>0.2665426641434143</v>
@@ -4859,7 +4859,7 @@
         <v>1.900527750876516</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7871891347676987</v>
+        <v>0.7871891347676985</v>
       </c>
       <c r="T53" t="n">
         <v>0.1923707051659166</v>
@@ -4868,10 +4868,10 @@
         <v>1.645902078208217</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5156440143916695</v>
+        <v>0.5156440143916694</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06956591790645925</v>
+        <v>0.06956591790645922</v>
       </c>
       <c r="X53" t="n">
         <v>1.187570294464751</v>
@@ -4900,22 +4900,22 @@
         <v>0.02257036986077279</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.02387379372548459</v>
+        <v>-0.001016650868341771</v>
       </c>
       <c r="F54" t="n">
         <v>0.1152143427013062</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08484661610415217</v>
+        <v>0.08484661610415212</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005495524207260821</v>
+        <v>0.005495524207260793</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3115724297475438</v>
+        <v>0.311572429747544</v>
       </c>
       <c r="J54" t="n">
-        <v>0.004728043606205157</v>
+        <v>0.004728043606204935</v>
       </c>
       <c r="K54" t="n">
         <v>-0.03813591728150872</v>
@@ -4930,19 +4930,19 @@
         <v>-0.2052456388214643</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.2520528222867631</v>
+        <v>-0.2520528222867635</v>
       </c>
       <c r="P54" t="n">
         <v>-0.3405233046253113</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.2494687674410345</v>
+        <v>-0.2494687674410346</v>
       </c>
       <c r="R54" t="n">
         <v>-0.208227267582124</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.2011694150772121</v>
+        <v>-0.2011694150772123</v>
       </c>
       <c r="T54" t="n">
         <v>-0.1976215932973438</v>
@@ -4951,16 +4951,16 @@
         <v>0.006268280393427528</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.06739613552545232</v>
+        <v>-0.06739613552545265</v>
       </c>
       <c r="W54" t="n">
         <v>-0.08899849230120707</v>
       </c>
       <c r="X54" t="n">
-        <v>0.1584591355715583</v>
+        <v>0.1584591355715579</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.003237265702989489</v>
+        <v>-0.003237265702989572</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -4980,28 +4980,28 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06599571702204141</v>
+        <v>0.06599571702204142</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.01317762843412535</v>
+        <v>0.009679514423017472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1985990231120893</v>
+        <v>0.1985990231120894</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2665504431002085</v>
+        <v>0.2665504431002086</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07073126189599498</v>
+        <v>0.07073126189599496</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6298861776309581</v>
+        <v>0.6298861776309583</v>
       </c>
       <c r="J55" t="n">
-        <v>0.331329962942212</v>
+        <v>0.3313299629422118</v>
       </c>
       <c r="K55" t="n">
-        <v>0.09013574015382328</v>
+        <v>0.09013574015382325</v>
       </c>
       <c r="L55" t="n">
         <v>0.7916771151529927</v>
@@ -5025,31 +5025,31 @@
         <v>0.5088050838589959</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1562680016821354</v>
+        <v>0.1562680016821352</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.05205592092760081</v>
+        <v>-0.05205592092760075</v>
       </c>
       <c r="U55" t="n">
         <v>0.5981548993580554</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1537222987350935</v>
+        <v>0.1537222987350932</v>
       </c>
       <c r="W55" t="n">
-        <v>-0.01942290085454615</v>
+        <v>-0.01942290085454612</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5440272444719381</v>
+        <v>0.5440272444719376</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.05028261212949764</v>
+        <v>0.05028261212949758</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.3012941487998228</v>
+        <v>0.3012941487998229</v>
       </c>
     </row>
     <row r="56">
@@ -5066,7 +5066,7 @@
         <v>0.09177255946222124</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.007212976608753922</v>
+        <v>0.01564416624838896</v>
       </c>
       <c r="F56" t="n">
         <v>0.1975816995407847</v>
@@ -5099,7 +5099,7 @@
         <v>3.858926615896365</v>
       </c>
       <c r="P56" t="n">
-        <v>2.32072770402176</v>
+        <v>2.320727704021761</v>
       </c>
       <c r="Q56" t="n">
         <v>0.8899987419959503</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.9465495836327338</v>
+        <v>0.9465495836327337</v>
       </c>
     </row>
     <row r="57">
@@ -5146,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06585389605811502</v>
+        <v>0.06585389605811501</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0105911426657037</v>
+        <v>0.01226600019143919</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203853585317995</v>
+        <v>0.1203853585317996</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5116126921069699</v>
+        <v>0.51161269210697</v>
       </c>
       <c r="H57" t="n">
         <v>0.1661006954395581</v>
@@ -5173,7 +5173,7 @@
         <v>2.505550890884433</v>
       </c>
       <c r="M57" t="n">
-        <v>2.450627062784492</v>
+        <v>2.450627062784491</v>
       </c>
       <c r="N57" t="n">
         <v>0.9049894359575039</v>
@@ -5188,13 +5188,13 @@
         <v>1.084880502089401</v>
       </c>
       <c r="R57" t="n">
-        <v>4.854945715573065</v>
+        <v>4.854945715573066</v>
       </c>
       <c r="S57" t="n">
         <v>2.436697898163979</v>
       </c>
       <c r="T57" t="n">
-        <v>0.8994174015709695</v>
+        <v>0.8994174015709696</v>
       </c>
       <c r="U57" t="n">
         <v>4.35104107497361</v>
@@ -5209,7 +5209,7 @@
         <v>3.050006292751669</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.4074715631459785</v>
+        <v>0.4074715631459787</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5232,13 +5232,13 @@
         <v>0.1748361317639765</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01542233686528872</v>
+        <v>0.03827947972243152</v>
       </c>
       <c r="F58" t="n">
         <v>0.4317640566211204</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5627131257444118</v>
+        <v>0.5627131257444119</v>
       </c>
       <c r="H58" t="n">
         <v>0.178116649826865</v>
@@ -5259,10 +5259,10 @@
         <v>0.2474675226674923</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03109715770300159</v>
+        <v>0.0310971577030017</v>
       </c>
       <c r="O58" t="n">
-        <v>0.6907831523038603</v>
+        <v>0.6907831523038601</v>
       </c>
       <c r="P58" t="n">
         <v>0.08342846996851194</v>
@@ -5274,7 +5274,7 @@
         <v>0.4848388472509599</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1157018436478641</v>
+        <v>0.1157018436478638</v>
       </c>
       <c r="T58" t="n">
         <v>-0.07426225020613381</v>
@@ -5283,16 +5283,16 @@
         <v>0.5297886374198146</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1136440203194051</v>
+        <v>0.1136440203194048</v>
       </c>
       <c r="W58" t="n">
         <v>-0.04593631398953649</v>
       </c>
       <c r="X58" t="n">
-        <v>0.4803993238773265</v>
+        <v>0.4803993238773263</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.03978636142697484</v>
+        <v>0.03978636142697478</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5315,19 +5315,19 @@
         <v>0.1010090845363662</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00145837003469357</v>
+        <v>0.02431551289183644</v>
       </c>
       <c r="F59" t="n">
         <v>0.2109757019156853</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4530331877516669</v>
+        <v>0.453033187751667</v>
       </c>
       <c r="H59" t="n">
         <v>0.1482368422337134</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8594830227263417</v>
+        <v>0.8594830227263416</v>
       </c>
       <c r="J59" t="n">
         <v>0.9916004448529976</v>
@@ -5360,7 +5360,7 @@
         <v>1.684078290975602</v>
       </c>
       <c r="T59" t="n">
-        <v>0.5883717876418533</v>
+        <v>0.5883717876418532</v>
       </c>
       <c r="U59" t="n">
         <v>3.098195110308726</v>
@@ -5375,7 +5375,7 @@
         <v>2.215579480975021</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2908517431612794</v>
+        <v>0.2908517431612795</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -5398,67 +5398,67 @@
         <v>0.09191438042614762</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.00979946237717557</v>
+        <v>0.01305768047996723</v>
       </c>
       <c r="F60" t="n">
         <v>0.2757953641210745</v>
       </c>
       <c r="G60" t="n">
-        <v>0.355012897770536</v>
+        <v>0.3550128977705359</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09721420941586997</v>
+        <v>0.09721420941586996</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8334015029666808</v>
+        <v>0.833401502966681</v>
       </c>
       <c r="J60" t="n">
-        <v>0.327796641322826</v>
+        <v>0.3277966413228259</v>
       </c>
       <c r="K60" t="n">
-        <v>0.09146370259221853</v>
+        <v>0.09146370259221848</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8048983955131852</v>
+        <v>0.8048983955131854</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.1959371504233873</v>
+        <v>-0.1959371504233871</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.1546550442729976</v>
+        <v>-0.1546550442729975</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.04683369974217966</v>
+        <v>-0.0468336997421801</v>
       </c>
       <c r="P60" t="n">
         <v>-0.3500224067058852</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.2600600337010892</v>
+        <v>-0.2600600337010893</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.2154221921361055</v>
+        <v>-0.215422192136105</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.2501997262052507</v>
+        <v>-0.2501997262052509</v>
       </c>
       <c r="T60" t="n">
         <v>-0.2267041028425847</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.05997858715265147</v>
+        <v>-0.05997858715265192</v>
       </c>
       <c r="V60" t="n">
-        <v>-0.1079502020405567</v>
+        <v>-0.1079502020405572</v>
       </c>
       <c r="W60" t="n">
         <v>-0.106918519023205</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0938192351207765</v>
+        <v>0.09381923512077606</v>
       </c>
       <c r="Y60" t="n">
-        <v>-0.01648207555390613</v>
+        <v>-0.01648207555390624</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -5481,10 +5481,10 @@
         <v>0.2831224528283846</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04030319802267085</v>
+        <v>0.06316034087981369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6155224251660051</v>
+        <v>0.615522425166005</v>
       </c>
       <c r="G61" t="n">
         <v>1.175069578080491</v>
@@ -5496,7 +5496,7 @@
         <v>2.22145491704803</v>
       </c>
       <c r="J61" t="n">
-        <v>1.964339559622246</v>
+        <v>1.964339559622247</v>
       </c>
       <c r="K61" t="n">
         <v>0.7314940273304833</v>
@@ -5508,7 +5508,7 @@
         <v>2.36863708177276</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8817214131410401</v>
+        <v>0.8817214131410402</v>
       </c>
       <c r="O61" t="n">
         <v>4.251961848077158</v>
@@ -5564,7 +5564,7 @@
         <v>0.1440221589840343</v>
       </c>
       <c r="E62" t="n">
-        <v>0.005848945415599225</v>
+        <v>0.02870608827274208</v>
       </c>
       <c r="F62" t="n">
         <v>0.3231673819426117</v>
@@ -5588,7 +5588,7 @@
         <v>2.494750308024352</v>
       </c>
       <c r="M62" t="n">
-        <v>1.799523023873103</v>
+        <v>1.799523023873104</v>
       </c>
       <c r="N62" t="n">
         <v>0.6469089588328794</v>
@@ -5600,13 +5600,13 @@
         <v>1.86833510153053</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6888459749442489</v>
+        <v>0.6888459749442488</v>
       </c>
       <c r="R62" t="n">
         <v>3.39531028888016</v>
       </c>
       <c r="S62" t="n">
-        <v>1.629405211118385</v>
+        <v>1.629405211118386</v>
       </c>
       <c r="T62" t="n">
         <v>0.5547051579188069</v>
@@ -5615,7 +5615,7 @@
         <v>3.033361172357421</v>
       </c>
       <c r="V62" t="n">
-        <v>1.078432910226103</v>
+        <v>1.078432910226104</v>
       </c>
       <c r="W62" t="n">
         <v>0.2825284159294239</v>
@@ -5647,10 +5647,10 @@
         <v>0.4481414100768411</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07813561668669226</v>
+        <v>0.1009927595438351</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9850738093983836</v>
+        <v>0.9850738093983835</v>
       </c>
       <c r="G63" t="n">
         <v>1.732733075398471</v>
@@ -5662,7 +5662,7 @@
         <v>3.28300282092317</v>
       </c>
       <c r="J63" t="n">
-        <v>2.593425542595383</v>
+        <v>2.593425542595384</v>
       </c>
       <c r="K63" t="n">
         <v>0.9830363238234463</v>
@@ -5674,7 +5674,7 @@
         <v>2.61377046645144</v>
       </c>
       <c r="N63" t="n">
-        <v>0.9859632866705836</v>
+        <v>0.9859632866705839</v>
       </c>
       <c r="O63" t="n">
         <v>4.653698586712139</v>
@@ -5686,7 +5686,7 @@
         <v>0.8288206560809778</v>
       </c>
       <c r="R63" t="n">
-        <v>4.068396117253931</v>
+        <v>4.06839611725393</v>
       </c>
       <c r="S63" t="n">
         <v>1.851037231951974</v>
@@ -5707,7 +5707,7 @@
         <v>2.343262641309721</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.2932247543556958</v>
+        <v>0.2932247543556959</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5730,67 +5730,67 @@
         <v>0.1050798484850011</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.004957584393473886</v>
+        <v>0.01789955846366892</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2999900348174955</v>
+        <v>0.2999900348174954</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3636783647631425</v>
+        <v>0.3636783647631424</v>
       </c>
       <c r="H64" t="n">
         <v>0.1024364436566236</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8423463816851142</v>
+        <v>0.8423463816851144</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3192710350927737</v>
+        <v>0.3192710350927735</v>
       </c>
       <c r="K64" t="n">
-        <v>0.08763523096497278</v>
+        <v>0.08763523096497272</v>
       </c>
       <c r="L64" t="n">
         <v>0.786276823722952</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.1975084966581055</v>
+        <v>-0.1975084966581053</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.1531247020566926</v>
+        <v>-0.1531247020566925</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.05118445296927288</v>
+        <v>-0.05118445296927332</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.3519109314531372</v>
+        <v>-0.351910931453137</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.2631955371802148</v>
+        <v>-0.2631955371802149</v>
       </c>
       <c r="R64" t="n">
         <v>-0.2210126294874568</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.2473783418406614</v>
+        <v>-0.2473783418406619</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.2244120427536822</v>
+        <v>-0.224412042753682</v>
       </c>
       <c r="U64" t="n">
         <v>-0.06068505195003882</v>
       </c>
       <c r="V64" t="n">
-        <v>-0.107791606007418</v>
+        <v>-0.1077916060074184</v>
       </c>
       <c r="W64" t="n">
         <v>-0.1097829811608691</v>
       </c>
       <c r="X64" t="n">
-        <v>0.09415656173949993</v>
+        <v>0.09415656173949949</v>
       </c>
       <c r="Y64" t="n">
-        <v>-0.01556588917110818</v>
+        <v>-0.01556588917110827</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -5813,10 +5813,10 @@
         <v>-0.00349011450725982</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.02466547401401272</v>
+        <v>-0.001808331156869819</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.04019566288796889</v>
+        <v>-0.04019566288796877</v>
       </c>
       <c r="G65" t="n">
         <v>0.2414464104405863</v>
@@ -5840,7 +5840,7 @@
         <v>2.326489024210433</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8543988414090372</v>
+        <v>0.8543988414090371</v>
       </c>
       <c r="O65" t="n">
         <v>4.199157482534519</v>
@@ -5855,10 +5855,10 @@
         <v>4.862140640127047</v>
       </c>
       <c r="S65" t="n">
-        <v>2.485728209292017</v>
+        <v>2.485728209292018</v>
       </c>
       <c r="T65" t="n">
-        <v>0.9284999111162104</v>
+        <v>0.9284999111162106</v>
       </c>
       <c r="U65" t="n">
         <v>4.417287942519689</v>
@@ -5896,7 +5896,7 @@
         <v>0.2656157690712221</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03298519878826139</v>
+        <v>0.05584234164540421</v>
       </c>
       <c r="F66" t="n">
         <v>0.6093340857642071</v>
@@ -5908,10 +5908,10 @@
         <v>0.3581571601708066</v>
       </c>
       <c r="I66" t="n">
-        <v>2.106656494500338</v>
+        <v>2.106656494500339</v>
       </c>
       <c r="J66" t="n">
-        <v>1.634204318666853</v>
+        <v>1.634204318666854</v>
       </c>
       <c r="K66" t="n">
         <v>0.6045503323335465</v>
@@ -5923,10 +5923,10 @@
         <v>1.59653769675675</v>
       </c>
       <c r="N66" t="n">
-        <v>0.5699896570353387</v>
+        <v>0.5699896570353388</v>
       </c>
       <c r="O66" t="n">
-        <v>2.955842747167102</v>
+        <v>2.955842747167101</v>
       </c>
       <c r="P66" t="n">
         <v>1.406443396958726</v>
@@ -5979,7 +5979,7 @@
         <v>0.2226026946235541</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02859462340735573</v>
+        <v>0.05145176626449856</v>
       </c>
       <c r="F67" t="n">
         <v>0.4971424057372806</v>
@@ -6006,7 +6006,7 @@
         <v>1.469256965713255</v>
       </c>
       <c r="N67" t="n">
-        <v>0.522459746919482</v>
+        <v>0.5224597469194822</v>
       </c>
       <c r="O67" t="n">
         <v>2.741922118168331</v>
@@ -6036,7 +6036,7 @@
         <v>0.1835749492101084</v>
       </c>
       <c r="X67" t="n">
-        <v>1.701406224410524</v>
+        <v>1.701406224410525</v>
       </c>
       <c r="Y67" t="n">
         <v>0.2126746183925549</v>
@@ -6059,25 +6059,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.04284469771989367</v>
+        <v>-0.04284469771989365</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.04177759373353941</v>
+        <v>-0.01892045087639657</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.03456601039694174</v>
+        <v>-0.03456601039694168</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02961223954399478</v>
+        <v>-0.02961223954399467</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.036654126034875</v>
+        <v>-0.03665412603487503</v>
       </c>
       <c r="I68" t="n">
-        <v>0.08122246825652102</v>
+        <v>0.08122246825652124</v>
       </c>
       <c r="J68" t="n">
-        <v>0.03383818391574822</v>
+        <v>0.033838183915748</v>
       </c>
       <c r="K68" t="n">
         <v>-0.02797846483816668</v>
@@ -6101,28 +6101,28 @@
         <v>-0.04518049691020742</v>
       </c>
       <c r="R68" t="n">
-        <v>0.5327713204670315</v>
+        <v>0.5327713204670319</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1968341597164067</v>
+        <v>0.1968341597164065</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.02984959164906781</v>
+        <v>-0.02984959164906775</v>
       </c>
       <c r="U68" t="n">
-        <v>0.6665211612962965</v>
+        <v>0.6665211612962962</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1938005771507819</v>
+        <v>0.1938005771507816</v>
       </c>
       <c r="W68" t="n">
-        <v>0.007090512280444217</v>
+        <v>0.007090512280444244</v>
       </c>
       <c r="X68" t="n">
-        <v>0.6076551650665496</v>
+        <v>0.6076551650665492</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.06077886283202047</v>
+        <v>0.06077886283202039</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6145,10 +6145,10 @@
         <v>0.2742982004678401</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03793744128967694</v>
+        <v>0.06079458414681981</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5733214231749612</v>
+        <v>0.5733214231749613</v>
       </c>
       <c r="G69" t="n">
         <v>1.250980016421007</v>
@@ -6157,7 +6157,7 @@
         <v>0.4252182720270178</v>
       </c>
       <c r="I69" t="n">
-        <v>2.318363582158854</v>
+        <v>2.318363582158855</v>
       </c>
       <c r="J69" t="n">
         <v>2.311526013037744</v>
@@ -6175,13 +6175,13 @@
         <v>1.190392484814132</v>
       </c>
       <c r="O69" t="n">
-        <v>5.556782455441403</v>
+        <v>5.556782455441402</v>
       </c>
       <c r="P69" t="n">
         <v>3.185684454278988</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.241717456444435</v>
+        <v>1.241717456444436</v>
       </c>
       <c r="R69" t="n">
         <v>5.54640734320352</v>
@@ -6202,7 +6202,7 @@
         <v>0.4912551902694068</v>
       </c>
       <c r="X69" t="n">
-        <v>3.306969253987932</v>
+        <v>3.306969253987933</v>
       </c>
       <c r="Y69" t="n">
         <v>0.4363341940422283</v>
@@ -6225,16 +6225,16 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.07269230410870829</v>
+        <v>-0.07269230410870826</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.04132629113074339</v>
+        <v>-0.01846914827360054</v>
       </c>
       <c r="F70" t="n">
         <v>-0.1225630197274473</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2737821202325589</v>
+        <v>-0.2737821202325588</v>
       </c>
       <c r="H70" t="n">
         <v>-0.1127061085212233</v>
@@ -6243,22 +6243,22 @@
         <v>-0.4137719688073156</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3148072324910298</v>
+        <v>-0.3148072324910303</v>
       </c>
       <c r="K70" t="n">
         <v>-0.1690634995936312</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.354132998668115</v>
+        <v>-0.3541329986681154</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.120232554350528</v>
+        <v>-0.1202325543505283</v>
       </c>
       <c r="N70" t="n">
         <v>-0.1252656525913137</v>
       </c>
       <c r="O70" t="n">
-        <v>0.08817804435138976</v>
+        <v>0.08817804435139021</v>
       </c>
       <c r="P70" t="n">
         <v>0.1175913504519894</v>
@@ -6270,25 +6270,25 @@
         <v>0.5231949329669585</v>
       </c>
       <c r="S70" t="n">
-        <v>0.2543286239382123</v>
+        <v>0.2543286239382121</v>
       </c>
       <c r="T70" t="n">
-        <v>0.006109098162881077</v>
+        <v>0.006109098162881132</v>
       </c>
       <c r="U70" t="n">
-        <v>0.7306486344502137</v>
+        <v>0.7306486344502134</v>
       </c>
       <c r="V70" t="n">
-        <v>0.2348304317653024</v>
+        <v>0.2348304317653022</v>
       </c>
       <c r="W70" t="n">
-        <v>0.01641715258944962</v>
+        <v>0.01641715258944965</v>
       </c>
       <c r="X70" t="n">
         <v>0.6733070453735015</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.07677223183133094</v>
+        <v>0.07677223183133089</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -6311,10 +6311,10 @@
         <v>-0.1771915031523343</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.06745013517944969</v>
+        <v>-0.04459299232230679</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3737343845311014</v>
+        <v>-0.3737343845311013</v>
       </c>
       <c r="G71" t="n">
         <v>-0.4853688975436395</v>
@@ -6326,7 +6326,7 @@
         <v>-0.8565821343524944</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.2736381643320485</v>
+        <v>-0.2736381643320489</v>
       </c>
       <c r="K71" t="n">
         <v>-0.1564055379614386</v>
@@ -6335,10 +6335,10 @@
         <v>-0.306089272227567</v>
       </c>
       <c r="M71" t="n">
-        <v>0.5340141770302964</v>
+        <v>0.5340141770302962</v>
       </c>
       <c r="N71" t="n">
-        <v>0.129754140100701</v>
+        <v>0.1297541401007008</v>
       </c>
       <c r="O71" t="n">
         <v>1.196481035625237</v>
@@ -6365,7 +6365,7 @@
         <v>0.757541049184048</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2028662374774239</v>
+        <v>0.202866237477424</v>
       </c>
       <c r="X71" t="n">
         <v>1.572373757600931</v>
@@ -6394,7 +6394,7 @@
         <v>-0.02533801396273123</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.03445959449912996</v>
+        <v>-0.01160245164198709</v>
       </c>
       <c r="F72" t="n">
         <v>-0.02837767099514377</v>
@@ -6406,13 +6406,13 @@
         <v>0.002098664133984157</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1960208908042128</v>
+        <v>0.1960208908042129</v>
       </c>
       <c r="J72" t="n">
-        <v>0.363973424871141</v>
+        <v>0.3639734248711408</v>
       </c>
       <c r="K72" t="n">
-        <v>0.09896523015877012</v>
+        <v>0.0989652301587701</v>
       </c>
       <c r="L72" t="n">
         <v>0.8210992698033077</v>
@@ -6427,7 +6427,7 @@
         <v>1.602568527487311</v>
       </c>
       <c r="P72" t="n">
-        <v>1.00148982652605</v>
+        <v>1.001489826526051</v>
       </c>
       <c r="Q72" t="n">
         <v>0.3339917570166382</v>
@@ -6445,10 +6445,10 @@
         <v>1.916541266771632</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6765915121869778</v>
+        <v>0.6765915121869777</v>
       </c>
       <c r="W72" t="n">
-        <v>0.164161721895764</v>
+        <v>0.1641617218957641</v>
       </c>
       <c r="X72" t="n">
         <v>1.443431283318091</v>
